--- a/summaries/trials/Molpath/lineages.xlsx
+++ b/summaries/trials/Molpath/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -26,6 +26,87 @@
     <t xml:space="preserve">B.1.1.7</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0017|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0018|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0019|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0020|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0021|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0022|Saliva|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0023|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0005|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0006|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0007|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0008|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0009|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0010|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0002|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0004|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0005|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0006|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0009|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0010|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0011|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0013|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0015|Saline|20210211</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-Q-0001|Saline|20210211</t>
   </si>
   <si>
@@ -74,15 +155,9 @@
     <t xml:space="preserve">Molpath|MP_Cluster2-Seq14|Saline|20210211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.234</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|MP_Cluster2-Seq15|Saline|20210211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq1|Swab|20210201</t>
   </si>
   <si>
@@ -92,6 +167,18 @@
     <t xml:space="preserve">Molpath|MPCluster2-Seq11|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq12|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq13|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq14|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq15|Saline|20210211</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq2|Swab|20210201</t>
   </si>
   <si>
@@ -159,6 +246,273 @@
   </si>
   <si>
     <t xml:space="preserve">B.1.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0001|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0002|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0003|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0004|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0005|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0006|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0008|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0009|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0010|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0011|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0018|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0019|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0020|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0021|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0022|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0024|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0025|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0026|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0027|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0028|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0029|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0032|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0034|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0035|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0038|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0039|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0040|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0041|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0042|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0043|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0045|saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0046|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0047|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0048|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0049|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0050|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0051|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0052|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0053|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0054|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0055|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0056|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0057|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0058|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0059|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0060|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0061|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0062|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0063|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0064|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0065|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0066|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0067|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0068|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0069|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0070|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0071|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0072|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0073|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0074|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0075|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0076|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0077|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0078|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0079|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0080|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0081|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0082|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.110.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0083|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0084|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0085|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0086|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0087|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0088|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0090|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0091|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0092|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0093|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0094|Saline|20210308</t>
   </si>
 </sst>
 </file>
@@ -511,63 +865,63 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -575,20 +929,20 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -596,23 +950,23 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -620,7 +974,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -628,7 +982,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -636,7 +990,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -644,7 +998,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -652,7 +1006,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -660,82 +1014,82 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
         <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -751,55 +1105,895 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/trials/Molpath/lineages.xlsx
+++ b/summaries/trials/Molpath/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -53,6 +53,21 @@
     <t xml:space="preserve">Molpath|HUP_PH-0023|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0024|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0025|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0026|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0027|Saline|20210301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0005|Saline|20210222</t>
   </si>
   <si>
@@ -71,6 +86,84 @@
     <t xml:space="preserve">Molpath|HUP_Q-0010|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0011|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0012|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0014|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0015|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0016|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0017|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0018|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0019|Saliva|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0020|Saliva|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0021|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0022|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0023|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0024|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0025|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0026|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0029|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0041|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0042|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0043|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0044|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0046|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0048|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0049|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0052|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0053|Saline|20210315</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-PH-0002|Saline|20210212</t>
   </si>
   <si>
@@ -116,6 +209,18 @@
     <t xml:space="preserve">Molpath|HUP-Q-0004|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0013|unknown|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0027|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0028|Saline|20210301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|molpath-sdrop4|Saline|20210122</t>
   </si>
   <si>
@@ -185,6 +290,9 @@
     <t xml:space="preserve">Molpath|MPCluster2-Seq3|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq4|Swab|20210201</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq5|Swab|20210201</t>
   </si>
   <si>
@@ -197,9 +305,6 @@
     <t xml:space="preserve">Molpath|MPCluster2-Seq8|Swab|20210201</t>
   </si>
   <si>
-    <t xml:space="preserve">Molpath|MPCluster2-Seq9|Swab|20210201</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|PQ-Seq1|Saliva|20210201</t>
   </si>
   <si>
@@ -284,9 +389,6 @@
     <t xml:space="preserve">Molpath|UPHS-0018|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.311</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|UPHS-0019|Saline|20210308</t>
   </si>
   <si>
@@ -296,9 +398,6 @@
     <t xml:space="preserve">Molpath|UPHS-0021|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.526</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|UPHS-0022|Saline|20210308</t>
   </si>
   <si>
@@ -308,15 +407,9 @@
     <t xml:space="preserve">Molpath|UPHS-0025|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">Molpath|UPHS-0026|Saline|20210308</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|UPHS-0027|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.222</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|UPHS-0028|Saline|20210308</t>
   </si>
   <si>
@@ -395,9 +488,6 @@
     <t xml:space="preserve">Molpath|UPHS-0058|VTM|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">Molpath|UPHS-0059|Saline|20210308</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|UPHS-0060|Saline|20210308</t>
   </si>
   <si>
@@ -513,6 +603,90 @@
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0094|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0101|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0103|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0105|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0107|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0108|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0109|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0110|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0111|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0112|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0114|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0115|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0116|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0117|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0118|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0119|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0120|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0121|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0122|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0123|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0124|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0125|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0126|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0128|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0129|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0130|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0131|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0133|VTM|20210315</t>
   </si>
 </sst>
 </file>
@@ -921,36 +1095,36 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -958,7 +1132,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -966,10 +1140,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -977,7 +1151,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -985,7 +1159,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -993,7 +1167,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1001,7 +1175,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1009,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1017,28 +1191,28 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1046,15 +1220,15 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1062,7 +1236,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1070,7 +1244,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1078,7 +1252,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1086,39 +1260,39 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1126,55 +1300,55 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1182,178 +1356,178 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
         <v>75</v>
-      </c>
-      <c r="B64" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="65">
@@ -1369,12 +1543,12 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1382,18 +1556,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -1401,7 +1575,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71">
@@ -1409,7 +1583,7 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72">
@@ -1417,7 +1591,7 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
@@ -1425,7 +1599,7 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
@@ -1433,7 +1607,7 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -1441,7 +1615,7 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76">
@@ -1449,550 +1623,1006 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B138" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B140" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B142" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
         <v>166</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B147" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>177</v>
+      </c>
+      <c r="B158" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>188</v>
+      </c>
+      <c r="B168" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>189</v>
+      </c>
+      <c r="B169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>195</v>
+      </c>
+      <c r="B173" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>198</v>
+      </c>
+      <c r="B176" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>199</v>
+      </c>
+      <c r="B177" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>203</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>204</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>205</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>206</v>
+      </c>
+      <c r="B183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>207</v>
+      </c>
+      <c r="B184" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>208</v>
+      </c>
+      <c r="B185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>209</v>
+      </c>
+      <c r="B186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>210</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>211</v>
+      </c>
+      <c r="B188" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>212</v>
+      </c>
+      <c r="B189" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B190" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>214</v>
+      </c>
+      <c r="B191" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>215</v>
+      </c>
+      <c r="B192" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>216</v>
+      </c>
+      <c r="B193" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>217</v>
+      </c>
+      <c r="B194" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>218</v>
+      </c>
+      <c r="B195" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>219</v>
+      </c>
+      <c r="B196" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>221</v>
+      </c>
+      <c r="B198" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>222</v>
+      </c>
+      <c r="B199" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>223</v>
+      </c>
+      <c r="B200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>224</v>
+      </c>
+      <c r="B201" t="s">
         <v>3</v>
       </c>
     </row>

--- a/summaries/trials/Molpath/lineages.xlsx
+++ b/summaries/trials/Molpath/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -23,255 +23,429 @@
     <t xml:space="preserve">Molpath|100667644|Saliva|20210121</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.7</t>
+    <t xml:space="preserve">VSP0623</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP_PH-0017|Saline|20210222</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.304</t>
+    <t xml:space="preserve">VSP0861</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP_PH-0018|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0862</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_PH-0019|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0863</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_PH-0020|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0864</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_PH-0021|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0865</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_PH-0022|Saliva|20210222</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.480</t>
+    <t xml:space="preserve">VSP0866</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP_PH-0023|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0867</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_PH-0024|Saline|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.311</t>
+    <t xml:space="preserve">VSP0898</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP_PH-0025|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0899</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_PH-0026|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0900</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_PH-0027|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0901</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0005|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0868</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0006|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0869</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0007|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0870</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0008|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0871</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0009|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0872</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0010|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0873</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0011|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0879</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0012|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0880</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0014|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0882</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0015|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0884</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0016|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0885</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0017|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0891</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0018|Saline|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.526</t>
+    <t xml:space="preserve">VSP0889</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP_Q-0019|Saliva|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0883</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0020|Saliva|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0890</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0021|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0892</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0022|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0886</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0023|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0887</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0024|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0888</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0025|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0893</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0026|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0894</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0029|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0897</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0041|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1073</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0042|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1074</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0043|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1075</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0044|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1076</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0046|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1078</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0048|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1080</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0049|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1081</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0052|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1084</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0053|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1085</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-PH-0002|Saline|20210212</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.243</t>
+    <t xml:space="preserve">VSP0817</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP-PH-0004|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0819</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-PH-0005|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0820</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-PH-0006|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0821</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-PH-0009|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0822</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-PH-0010|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0823</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-PH-0011|Saline|20210212</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.234</t>
+    <t xml:space="preserve">VSP0824</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP-PH-0013|Saline|20210211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.2</t>
+    <t xml:space="preserve">VSP0826</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP-PH-0015|Saline|20210211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0828</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-Q-0001|Saline|20210211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0813</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-Q-0003|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0814</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-Q-0004|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0815</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-Q-0013|unknown|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.222</t>
+    <t xml:space="preserve">VSP0881</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP-Q-0027|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0895</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-Q-0028|Saline|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0896</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|molpath-sdrop4|Saline|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0625</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|Molpath-SDrop5|Saline|20210211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0811</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|Molpath-SDrop6|Saline|20210211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0812</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|molpath-seq1|Saline|20210122</t>
   </si>
   <si>
-    <t xml:space="preserve">R.1</t>
+    <t xml:space="preserve">VSP0626</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|molpath-seq3|Saline|20210201</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.433</t>
+    <t xml:space="preserve">VSP0758</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|MolPath-Seq6|Saline|20210211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.404</t>
+    <t xml:space="preserve">VSP0810</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|MP_Cluster2-Seq12|Saline|20210211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.90</t>
+    <t xml:space="preserve">VSP0804</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|MP_Cluster2-Seq13|Saline|20210211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0805</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MP_Cluster2-Seq14|Saline|20210211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0806</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MP_Cluster2-Seq15|Saline|20210211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0807</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq1|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0759</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq10|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0768</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq11|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0769</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq12|Saline|20210211</t>
   </si>
   <si>
@@ -287,406 +461,757 @@
     <t xml:space="preserve">Molpath|MPCluster2-Seq2|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0760</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq3|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0761</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq4|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0762</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq5|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0763</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq6|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0764</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq7|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0765</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq8|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0766</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq1|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0770</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq10|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0779</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq12|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0781</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq13|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0782</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq14|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0783</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq15|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0784</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq17|Saliva|20210215</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.4</t>
+    <t xml:space="preserve">VSP0844</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|PQ-Seq18|Saliva|20210215</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0845</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq19|Saliva|20210215</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0846</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq3|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0772</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq4|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0773</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq5|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0774</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq6|Saliva|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0775</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|sdrop2_molpath|0.9%_Saline|20210120</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.375</t>
+    <t xml:space="preserve">VSP0622</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0001|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0934</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0002|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0935</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0003|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0936</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0004|unknown|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1</t>
+    <t xml:space="preserve">VSP0937</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0005|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0938</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0006|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0939</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0008|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0941</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0009|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0010|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0943</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0011|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0944</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0018|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0950</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0019|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0951</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0020|VTM|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0952</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0021|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0953</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0022|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0954</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0024|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0956</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0025|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0957</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0027|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0959</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0028|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0960</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0029|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0961</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0032|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0964</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0034|unknown|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0966</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0035|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0967</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0038|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0970</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0039|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0971</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0040|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.409</t>
+    <t xml:space="preserve">VSP0972</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0041|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0973</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0042|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0974</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0043|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0975</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0045|saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0977</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0046|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0978</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0047|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0979</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0048|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0980</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0049|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0981</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0050|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0982</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0051|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0983</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0052|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0984</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0053|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0985</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0054|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0986</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0055|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0987</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0056|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0988</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0057|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0989</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0058|VTM|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0990</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0060|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0992</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0061|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0993</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0062|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0994</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0063|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.346</t>
+    <t xml:space="preserve">VSP0995</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0064|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.306</t>
+    <t xml:space="preserve">VSP0996</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0065|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0997</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0066|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0998</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0067|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0999</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0068|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0069|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0070|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0071|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1003</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0072|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1004</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0073|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0074|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1006</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0075|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1007</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0076|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1008</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0077|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0078|VTM|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0079|VTM|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0080|VTM|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1012</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0081|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0082|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.110.3</t>
+    <t xml:space="preserve">VSP1014</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0083|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1015</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0084|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0085|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1017</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0086|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0087|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0088|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.429</t>
+    <t xml:space="preserve">VSP1020</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0090|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0091|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0092|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.427</t>
+    <t xml:space="preserve">VSP1023</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0093|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0094|Saline|20210308</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0101|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1086</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0103|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1088</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0105|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1090</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0107|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1092</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0108|Saline|20210315</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.351</t>
+    <t xml:space="preserve">VSP1093</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0109|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1094</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0110|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1095</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0111|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1096</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0112|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1097</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0114|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1099</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0115|Saline|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1100</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0116|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0117|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1102</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0118|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1103</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0119|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1104</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0120|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1105</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0121|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1106</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0122|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1107</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0123|VTM|20210315</t>
   </si>
   <si>
-    <t xml:space="preserve">Molpath|UPHS-0124|VTM|20210315</t>
+    <t xml:space="preserve">VSP1108</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0125|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1110</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0126|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0127|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1112</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0128|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1113</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0129|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1114</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0130|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1115</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0131|VTM|20210315</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP1116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0132|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1117</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|UPHS-0133|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP1118</t>
   </si>
 </sst>
 </file>
@@ -1047,1583 +1572,1591 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="B121" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="B127" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="B131" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="B132" t="s">
-        <v>117</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="B148" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="B149" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>73</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>60</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>117</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>60</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s">
-        <v>60</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>189</v>
+        <v>332</v>
       </c>
       <c r="B169" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="B170" t="s">
-        <v>60</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>338</v>
       </c>
       <c r="B172" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>60</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>344</v>
       </c>
       <c r="B175" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>198</v>
+        <v>346</v>
       </c>
       <c r="B176" t="s">
-        <v>66</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>199</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
-        <v>117</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="B178" t="s">
-        <v>31</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>352</v>
       </c>
       <c r="B179" t="s">
-        <v>202</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>203</v>
+        <v>354</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>207</v>
+        <v>362</v>
       </c>
       <c r="B184" t="s">
-        <v>60</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>208</v>
+        <v>364</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="B186" t="s">
-        <v>31</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>210</v>
+        <v>368</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>211</v>
+        <v>370</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>212</v>
+        <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
       <c r="B191" t="s">
-        <v>73</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="B192" t="s">
-        <v>60</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="B194" t="s">
-        <v>60</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>218</v>
+        <v>384</v>
       </c>
       <c r="B195" t="s">
-        <v>117</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>219</v>
+        <v>386</v>
       </c>
       <c r="B196" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>31</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>221</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
-        <v>117</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>222</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>117</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="B200" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>224</v>
+        <v>396</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>398</v>
+      </c>
+      <c r="B202" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
